--- a/Results/Plot data/ipcc_ar6_figure_spm_cumulative_co2.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_cumulative_co2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">region_ar6_10</t>
   </si>
@@ -41,13 +41,13 @@
     <t xml:space="preserve">CO2-LULUCF</t>
   </si>
   <si>
-    <t xml:space="preserve">Asia-Pacific Developed</t>
+    <t xml:space="preserve">Australia, Japan, New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Eurasia</t>
+    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
   </si>
   <si>
     <t xml:space="preserve">Europe</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">North America</t>
   </si>
   <si>
-    <t xml:space="preserve">South-East Asia and developing Pacific</t>
+    <t xml:space="preserve">South-East Asia and Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">Southern Asia</t>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Developed Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
   </si>
   <si>
     <t xml:space="preserve">region_ar6_dev</t>
@@ -452,7 +449,7 @@
         <v>46.262862949</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91887493718242</v>
+        <v>1.91887452502525</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +460,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>115.406392019819</v>
+        <v>115.406341945152</v>
       </c>
       <c r="D3" t="n">
-        <v>4.78678618488451</v>
+        <v>4.78678307974651</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +477,7 @@
         <v>84.638188582</v>
       </c>
       <c r="D4" t="n">
-        <v>3.51059334519697</v>
+        <v>3.51059259115292</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +488,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>20.3890453611253</v>
+        <v>20.389051467792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.845689731300654</v>
+        <v>0.845689802944207</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +505,7 @@
         <v>252.966479887</v>
       </c>
       <c r="D6" t="n">
-        <v>10.4924556601164</v>
+        <v>10.4924534064308</v>
       </c>
     </row>
     <row r="7">
@@ -519,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>42.83620500104</v>
+        <v>42.83613538504</v>
       </c>
       <c r="D7" t="n">
-        <v>1.77674521075615</v>
+        <v>1.77674194161956</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>148.968821874</v>
+        <v>177.889454544</v>
       </c>
       <c r="D8" t="n">
-        <v>6.17887697591766</v>
+        <v>7.37843533314007</v>
       </c>
     </row>
     <row r="9">
@@ -547,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>66.7203687245653</v>
+        <v>74.5892846048853</v>
       </c>
       <c r="D9" t="n">
-        <v>2.76740424573973</v>
+        <v>3.09378773695773</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +558,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>410.417714434</v>
+        <v>381.497081764</v>
       </c>
       <c r="D10" t="n">
-        <v>17.0231631983363</v>
+        <v>15.8235998575232</v>
       </c>
     </row>
     <row r="11">
@@ -575,10 +572,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>12.659815742304</v>
+        <v>4.79117710709333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.525099433730131</v>
+        <v>0.198726734785537</v>
       </c>
     </row>
     <row r="12">
@@ -592,7 +589,7 @@
         <v>41.166412837</v>
       </c>
       <c r="D12" t="n">
-        <v>1.70748615220172</v>
+        <v>1.70748578544898</v>
       </c>
     </row>
     <row r="13">
@@ -606,7 +603,7 @@
         <v>68.456694403</v>
       </c>
       <c r="D13" t="n">
-        <v>2.83942295826099</v>
+        <v>2.83942234837834</v>
       </c>
     </row>
     <row r="14">
@@ -617,10 +614,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>202.792190134539</v>
+        <v>202.792805686539</v>
       </c>
       <c r="D14" t="n">
-        <v>8.41134392254271</v>
+        <v>8.41136764750754</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +631,7 @@
         <v>55.9783077</v>
       </c>
       <c r="D15" t="n">
-        <v>2.32184877511428</v>
+        <v>2.32184827640194</v>
       </c>
     </row>
     <row r="16">
@@ -645,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1.47476330248533</v>
+        <v>1.474765745152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0611697192742942</v>
+        <v>0.0611698074516423</v>
       </c>
     </row>
     <row r="17">
@@ -662,7 +659,7 @@
         <v>443.242337471</v>
       </c>
       <c r="D17" t="n">
-        <v>18.3846514948474</v>
+        <v>18.3846475459887</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +670,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>119.269431609067</v>
+        <v>119.269757705067</v>
       </c>
       <c r="D18" t="n">
-        <v>4.9470159972358</v>
+        <v>4.94702846035457</v>
       </c>
     </row>
     <row r="19">
@@ -690,7 +687,7 @@
         <v>37.051750631</v>
       </c>
       <c r="D19" t="n">
-        <v>1.53681962447798</v>
+        <v>1.53681929438288</v>
       </c>
     </row>
     <row r="20">
@@ -701,10 +698,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>146.831852712597</v>
+        <v>146.831248152597</v>
       </c>
       <c r="D20" t="n">
-        <v>6.09024051237091</v>
+        <v>6.09021412851773</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +715,7 @@
         <v>59.208150757</v>
       </c>
       <c r="D21" t="n">
-        <v>2.45581508195401</v>
+        <v>2.4558145544669</v>
       </c>
     </row>
     <row r="22">
@@ -729,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>34.1990629843787</v>
+        <v>34.1990776403787</v>
       </c>
       <c r="D22" t="n">
-        <v>1.41849683855905</v>
+        <v>1.41849714177496</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>148.968879981</v>
+        <v>177.889526182</v>
       </c>
       <c r="D5" t="n">
-        <v>9.012466320137</v>
+        <v>10.7621361161129</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>414.80962351</v>
+        <v>385.888977309</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0955619833444</v>
+        <v>23.3458921873686</v>
       </c>
     </row>
     <row r="7">
@@ -956,7 +953,7 @@
         <v>46.262862949</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91887493718242</v>
+        <v>1.91887452502525</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>115.406392019819</v>
+        <v>115.406341945152</v>
       </c>
       <c r="D3" t="n">
-        <v>4.78678618488451</v>
+        <v>4.78678307974651</v>
       </c>
     </row>
     <row r="4">
@@ -984,7 +981,7 @@
         <v>349.226381275</v>
       </c>
       <c r="D4" t="n">
-        <v>14.4850903665484</v>
+        <v>14.4850872552806</v>
       </c>
     </row>
     <row r="5">
@@ -995,10 +992,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>223.867120698016</v>
+        <v>223.866461178016</v>
       </c>
       <c r="D5" t="n">
-        <v>9.2854825616861</v>
+        <v>9.28545321191225</v>
       </c>
     </row>
     <row r="6">
@@ -1009,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>938.298240487</v>
+        <v>909.377607817</v>
       </c>
       <c r="D6" t="n">
-        <v>38.9184080383806</v>
+        <v>37.7188399946649</v>
       </c>
     </row>
     <row r="7">
@@ -1023,38 +1020,38 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>152.318292712496</v>
+        <v>144.449986279952</v>
       </c>
       <c r="D7" t="n">
-        <v>6.31780516226658</v>
+        <v>5.99144499808432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>148.968821874</v>
+        <v>177.889454544</v>
       </c>
       <c r="D8" t="n">
-        <v>6.17887697591766</v>
+        <v>7.37843533314007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>66.7203687245653</v>
+        <v>74.5892846048853</v>
       </c>
       <c r="D9" t="n">
-        <v>2.76740424573973</v>
+        <v>3.09378773695773</v>
       </c>
     </row>
     <row r="10">
@@ -1068,7 +1065,7 @@
         <v>41.166412837</v>
       </c>
       <c r="D10" t="n">
-        <v>1.70748615220172</v>
+        <v>1.70748578544898</v>
       </c>
     </row>
     <row r="11">
@@ -1082,7 +1079,7 @@
         <v>68.456694403</v>
       </c>
       <c r="D11" t="n">
-        <v>2.83942295826099</v>
+        <v>2.83942234837834</v>
       </c>
     </row>
     <row r="12">
@@ -1093,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>202.792190134539</v>
+        <v>202.792805686539</v>
       </c>
       <c r="D12" t="n">
-        <v>8.41134392254271</v>
+        <v>8.41136764750754</v>
       </c>
     </row>
     <row r="13">
@@ -1110,7 +1107,7 @@
         <v>55.9783077</v>
       </c>
       <c r="D13" t="n">
-        <v>2.32184877511428</v>
+        <v>2.32184827640194</v>
       </c>
     </row>
     <row r="14">
@@ -1121,10 +1118,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1.47476330248533</v>
+        <v>1.474765745152</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0611697192742942</v>
+        <v>0.0611698074516423</v>
       </c>
     </row>
   </sheetData>
@@ -1191,24 +1188,24 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>942.860701435</v>
+        <v>913.940055234</v>
       </c>
       <c r="D4" t="n">
-        <v>57.0421172351399</v>
+        <v>55.292447439164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>148.968879981</v>
+        <v>177.889526182</v>
       </c>
       <c r="D5" t="n">
-        <v>9.012466320137</v>
+        <v>10.7621361161129</v>
       </c>
     </row>
     <row r="6">
@@ -1269,7 +1266,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1283,30 +1280,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.406585355</v>
+        <v>1031.857235539</v>
       </c>
       <c r="D2" t="n">
-        <v>64.3917622670536</v>
+        <v>62.5991083163892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>538.841637296</v>
+        <v>568.390987112</v>
       </c>
       <c r="D3" t="n">
-        <v>32.6896055546416</v>
+        <v>34.482259505306</v>
       </c>
     </row>
     <row r="4">
@@ -1325,7 +1322,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1353,7 +1350,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1367,30 +1364,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1065.969094044</v>
+        <v>1036.419730697</v>
       </c>
       <c r="D2" t="n">
-        <v>64.4900502682427</v>
+        <v>62.7023437218802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>538.841647662</v>
+        <v>568.391011009</v>
       </c>
       <c r="D3" t="n">
-        <v>32.5993737890779</v>
+        <v>34.3870803354404</v>
       </c>
     </row>
     <row r="4">
@@ -1409,7 +1406,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1437,7 +1434,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
